--- a/artfynd/A 54553-2018.xlsx
+++ b/artfynd/A 54553-2018.xlsx
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79092185</v>
+        <v>79092209</v>
       </c>
       <c r="B9" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1504,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>399870.1315784751</v>
+        <v>399693.0174672575</v>
       </c>
       <c r="R9" t="n">
-        <v>6967433.886627749</v>
+        <v>6967947.881116162</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79092209</v>
+        <v>79092218</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,21 +1624,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>399693.0174672575</v>
+        <v>399607.0881603772</v>
       </c>
       <c r="R10" t="n">
-        <v>6967947.881116162</v>
+        <v>6968073.070974734</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79092218</v>
+        <v>79092205</v>
       </c>
       <c r="B11" t="n">
-        <v>73693</v>
+        <v>73680</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6440</v>
+        <v>306</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>399607.0881603772</v>
+        <v>399729.9036449662</v>
       </c>
       <c r="R11" t="n">
-        <v>6968073.070974734</v>
+        <v>6967911.081749432</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79092205</v>
+        <v>79091613</v>
       </c>
       <c r="B12" t="n">
-        <v>73680</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,38 +1852,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>306</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>399729.9036449662</v>
+        <v>399762.1825342695</v>
       </c>
       <c r="R12" t="n">
-        <v>6967911.081749432</v>
+        <v>6968232.953203444</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,12 +1940,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -1956,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79092186</v>
+        <v>79092198</v>
       </c>
       <c r="B13" t="n">
-        <v>78570</v>
+        <v>73693</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,21 +1972,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2081</v>
+        <v>6440</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>399870.1315784751</v>
+        <v>399815.9396846255</v>
       </c>
       <c r="R13" t="n">
-        <v>6967433.886627749</v>
+        <v>6967789.087721395</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>79091613</v>
+        <v>79093723</v>
       </c>
       <c r="B14" t="n">
         <v>77506</v>
@@ -2106,16 +2106,19 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>399762.1825342695</v>
+        <v>399749.8821270642</v>
       </c>
       <c r="R14" t="n">
-        <v>6968232.953203444</v>
+        <v>6968279.971823399</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2160,38 +2163,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Mycket, på några granar.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>79092198</v>
+        <v>79092133</v>
       </c>
       <c r="B15" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2204,37 +2209,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>399815.9396846255</v>
+        <v>399711.1769134852</v>
       </c>
       <c r="R15" t="n">
-        <v>6967789.087721395</v>
+        <v>6968287.099896559</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2288,12 +2293,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2304,10 +2309,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>79093723</v>
+        <v>79093674</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2320,21 +2325,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2347,10 +2352,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>399749.8821270642</v>
+        <v>399614.8002997783</v>
       </c>
       <c r="R16" t="n">
-        <v>6968279.971823399</v>
+        <v>6968399.793462769</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2393,11 +2398,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Mycket, på några granar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2425,10 +2425,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79092133</v>
+        <v>79091977</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2441,21 +2441,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>399711.1769134852</v>
+        <v>399817.9225797486</v>
       </c>
       <c r="R17" t="n">
-        <v>6968287.099896559</v>
+        <v>6967928.971692648</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2525,12 +2525,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2541,10 +2541,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>79093674</v>
+        <v>79092207</v>
       </c>
       <c r="B18" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2557,37 +2557,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>399614.8002997783</v>
+        <v>399700.8619318273</v>
       </c>
       <c r="R18" t="n">
-        <v>6968399.793462769</v>
+        <v>6967934.836115619</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2638,29 +2635,32 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr"/>
+          <t>Bjarne Tutturen</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>79091977</v>
+        <v>79092189</v>
       </c>
       <c r="B19" t="n">
-        <v>89388</v>
+        <v>78098</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,37 +2673,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>399817.9225797486</v>
+        <v>399885.1301930393</v>
       </c>
       <c r="R19" t="n">
-        <v>6967928.971692648</v>
+        <v>6967640.164216924</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2757,12 +2757,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2773,7 +2773,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79092207</v>
+        <v>79091988</v>
       </c>
       <c r="B20" t="n">
         <v>77506</v>
@@ -2809,17 +2809,17 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>399700.8619318273</v>
+        <v>399811.9326722778</v>
       </c>
       <c r="R20" t="n">
-        <v>6967934.836115619</v>
+        <v>6967927.782687668</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2873,12 +2873,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2889,10 +2889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>79092189</v>
+        <v>79092132</v>
       </c>
       <c r="B21" t="n">
-        <v>78098</v>
+        <v>77506</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2905,37 +2905,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>399885.1301930393</v>
+        <v>399682.8170155885</v>
       </c>
       <c r="R21" t="n">
-        <v>6967640.164216924</v>
+        <v>6968362.959890574</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2989,12 +2989,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3005,10 +3005,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>79092184</v>
+        <v>79092206</v>
       </c>
       <c r="B22" t="n">
-        <v>78603</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3017,25 +3017,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>399870.1315784751</v>
+        <v>399717.9376545823</v>
       </c>
       <c r="R22" t="n">
-        <v>6967433.886627749</v>
+        <v>6967909.160955034</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>79091988</v>
+        <v>79091618</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3161,13 +3161,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>399811.9326722778</v>
+        <v>399714.1278724397</v>
       </c>
       <c r="R23" t="n">
-        <v>6967927.782687668</v>
+        <v>6968278.778659158</v>
       </c>
       <c r="S23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3221,12 +3221,12 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3237,10 +3237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>79092132</v>
+        <v>79092213</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3253,37 +3253,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>399682.8170155885</v>
+        <v>399688.0202699731</v>
       </c>
       <c r="R24" t="n">
-        <v>6968362.959890574</v>
+        <v>6968039.040171926</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3353,10 +3353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>79092206</v>
+        <v>79092194</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3365,25 +3365,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>399717.9376545823</v>
+        <v>399850.8926263217</v>
       </c>
       <c r="R25" t="n">
-        <v>6967909.160955034</v>
+        <v>6967703.867797134</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79091618</v>
+        <v>79092202</v>
       </c>
       <c r="B26" t="n">
         <v>77506</v>
@@ -3505,14 +3505,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>399714.1278724397</v>
+        <v>399770.1653380775</v>
       </c>
       <c r="R26" t="n">
-        <v>6968278.778659158</v>
+        <v>6967834.848375899</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3569,12 +3569,12 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3585,10 +3585,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>79092213</v>
+        <v>79092199</v>
       </c>
       <c r="B27" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3601,21 +3601,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>399688.0202699731</v>
+        <v>399815.9396846255</v>
       </c>
       <c r="R27" t="n">
-        <v>6968039.040171926</v>
+        <v>6967789.087721395</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>79092194</v>
+        <v>79091616</v>
       </c>
       <c r="B28" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3713,38 +3713,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>399850.8926263217</v>
+        <v>399819.1386767504</v>
       </c>
       <c r="R28" t="n">
-        <v>6967703.867797134</v>
+        <v>6967908.812168336</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3801,12 +3801,12 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
@@ -3817,10 +3817,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>79092202</v>
+        <v>79091972</v>
       </c>
       <c r="B29" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3833,37 +3833,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>399770.1653380775</v>
+        <v>399682.9670336375</v>
       </c>
       <c r="R29" t="n">
-        <v>6967834.848375899</v>
+        <v>6968352.895423437</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3917,12 +3917,12 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
@@ -3933,7 +3933,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>79092199</v>
+        <v>79092373</v>
       </c>
       <c r="B30" t="n">
         <v>77506</v>
@@ -3969,17 +3969,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>399815.9396846255</v>
+        <v>399880.8517094556</v>
       </c>
       <c r="R30" t="n">
-        <v>6967789.087721395</v>
+        <v>6967830.095745876</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4033,12 +4033,12 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
@@ -4049,7 +4049,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>79091616</v>
+        <v>79092136</v>
       </c>
       <c r="B31" t="n">
         <v>77506</v>
@@ -4089,13 +4089,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>399819.1386767504</v>
+        <v>399748.9011006622</v>
       </c>
       <c r="R31" t="n">
-        <v>6967908.812168336</v>
+        <v>6968232.901910781</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4149,12 +4149,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
@@ -4165,10 +4165,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>79092187</v>
+        <v>79092368</v>
       </c>
       <c r="B32" t="n">
-        <v>103250</v>
+        <v>89406</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4177,41 +4177,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221725</v>
+        <v>1204</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>399871.1052791341</v>
+        <v>399745.9183303234</v>
       </c>
       <c r="R32" t="n">
-        <v>6967450.780424873</v>
+        <v>6968285.123048618</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4265,12 +4265,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4281,10 +4281,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>79091972</v>
+        <v>79092375</v>
       </c>
       <c r="B33" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4297,21 +4297,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>399682.9670336375</v>
+        <v>399764.8419492346</v>
       </c>
       <c r="R33" t="n">
-        <v>6968352.895423437</v>
+        <v>6968095.226638545</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4381,12 +4381,12 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4397,10 +4397,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>79092373</v>
+        <v>79091968</v>
       </c>
       <c r="B34" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4413,21 +4413,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>399880.8517094556</v>
+        <v>399850.9822295979</v>
       </c>
       <c r="R34" t="n">
-        <v>6967830.095745876</v>
+        <v>6967811.799379735</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4497,12 +4497,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4513,7 +4513,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>79092136</v>
+        <v>79092214</v>
       </c>
       <c r="B35" t="n">
         <v>77506</v>
@@ -4549,17 +4549,17 @@
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>399748.9011006622</v>
+        <v>399684.7896378123</v>
       </c>
       <c r="R35" t="n">
-        <v>6968232.901910781</v>
+        <v>6968038.224364762</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4613,12 +4613,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4629,10 +4629,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>79092368</v>
+        <v>79092195</v>
       </c>
       <c r="B36" t="n">
-        <v>89406</v>
+        <v>77506</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4645,37 +4645,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>399745.9183303234</v>
+        <v>399837.8660068626</v>
       </c>
       <c r="R36" t="n">
-        <v>6968285.123048618</v>
+        <v>6967742.225924851</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4729,12 +4729,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4745,10 +4745,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>79092375</v>
+        <v>79091602</v>
       </c>
       <c r="B37" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4761,21 +4761,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4785,13 +4785,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>399764.8419492346</v>
+        <v>399631.8767602439</v>
       </c>
       <c r="R37" t="n">
-        <v>6968095.226638545</v>
+        <v>6968389.210964377</v>
       </c>
       <c r="S37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4845,12 +4845,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4861,10 +4861,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>79091968</v>
+        <v>79092188</v>
       </c>
       <c r="B38" t="n">
-        <v>89392</v>
+        <v>76909</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4877,37 +4877,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>6437</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>399850.9822295979</v>
+        <v>399885.1301930393</v>
       </c>
       <c r="R38" t="n">
-        <v>6967811.799379735</v>
+        <v>6967640.164216924</v>
       </c>
       <c r="S38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4961,12 +4961,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4977,7 +4977,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>79092214</v>
+        <v>79091989</v>
       </c>
       <c r="B39" t="n">
         <v>77506</v>
@@ -5013,17 +5013,17 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>399684.7896378123</v>
+        <v>399796.2229436815</v>
       </c>
       <c r="R39" t="n">
-        <v>6968038.224364762</v>
+        <v>6968058.140556235</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5077,12 +5077,12 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -5093,10 +5093,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>79092195</v>
+        <v>79091993</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5109,37 +5109,37 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>399837.8660068626</v>
+        <v>399683.9173709562</v>
       </c>
       <c r="R40" t="n">
-        <v>6967742.225924851</v>
+        <v>6968383.960419114</v>
       </c>
       <c r="S40" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5187,18 +5187,19 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5209,10 +5210,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>79092183</v>
+        <v>79092358</v>
       </c>
       <c r="B41" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5225,37 +5226,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>399883.2096531182</v>
+        <v>399752.9906595632</v>
       </c>
       <c r="R41" t="n">
-        <v>6967442.177923767</v>
+        <v>6968231.862326249</v>
       </c>
       <c r="S41" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5309,12 +5310,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr">
@@ -5325,10 +5326,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>79091602</v>
+        <v>79091986</v>
       </c>
       <c r="B42" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5341,21 +5342,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5365,13 +5366,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>399631.8767602439</v>
+        <v>399859.1373090741</v>
       </c>
       <c r="R42" t="n">
-        <v>6968389.210964377</v>
+        <v>6967748.894030207</v>
       </c>
       <c r="S42" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5425,12 +5426,12 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5441,10 +5442,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>79092188</v>
+        <v>79092137</v>
       </c>
       <c r="B43" t="n">
-        <v>76909</v>
+        <v>77506</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5457,37 +5458,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>399885.1301930393</v>
+        <v>399719.872537801</v>
       </c>
       <c r="R43" t="n">
-        <v>6967640.164216924</v>
+        <v>6968182.115951253</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5541,12 +5542,12 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
@@ -5557,7 +5558,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>79091989</v>
+        <v>79091990</v>
       </c>
       <c r="B44" t="n">
         <v>77506</v>
@@ -5597,10 +5598,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>399796.2229436815</v>
+        <v>399738.8537686144</v>
       </c>
       <c r="R44" t="n">
-        <v>6968058.140556235</v>
+        <v>6968188.852236346</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5673,10 +5674,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>79091993</v>
+        <v>79091609</v>
       </c>
       <c r="B45" t="n">
-        <v>81236</v>
+        <v>89673</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5689,21 +5690,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1312</v>
+        <v>658</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5713,13 +5714,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>399683.9173709562</v>
+        <v>399710.8451669363</v>
       </c>
       <c r="R45" t="n">
-        <v>6968383.960419114</v>
+        <v>6968291.225530193</v>
       </c>
       <c r="S45" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5767,19 +5768,18 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr">
@@ -5790,10 +5790,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>79092358</v>
+        <v>79092208</v>
       </c>
       <c r="B46" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5806,37 +5806,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>399752.9906595632</v>
+        <v>399701.1693293362</v>
       </c>
       <c r="R46" t="n">
-        <v>6968231.862326249</v>
+        <v>6967944.887864886</v>
       </c>
       <c r="S46" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5890,12 +5890,12 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr">
@@ -5906,7 +5906,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>79091986</v>
+        <v>79092219</v>
       </c>
       <c r="B47" t="n">
         <v>77506</v>
@@ -5942,17 +5942,17 @@
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>399859.1373090741</v>
+        <v>399680.0843123929</v>
       </c>
       <c r="R47" t="n">
-        <v>6967748.894030207</v>
+        <v>6968468.213105333</v>
       </c>
       <c r="S47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
@@ -6022,7 +6022,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>79092137</v>
+        <v>79092376</v>
       </c>
       <c r="B48" t="n">
         <v>77506</v>
@@ -6062,10 +6062,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>399719.872537801</v>
+        <v>399613.9173584364</v>
       </c>
       <c r="R48" t="n">
-        <v>6968182.115951253</v>
+        <v>6968415.824624576</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>79091990</v>
+        <v>79092365</v>
       </c>
       <c r="B49" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6154,21 +6154,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6178,10 +6178,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>399738.8537686144</v>
+        <v>399873.8516442559</v>
       </c>
       <c r="R49" t="n">
-        <v>6968188.852236346</v>
+        <v>6967840.82820246</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6238,12 +6238,12 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr">
@@ -6254,10 +6254,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79091609</v>
+        <v>79091611</v>
       </c>
       <c r="B50" t="n">
-        <v>89673</v>
+        <v>78603</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6266,25 +6266,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>658</v>
+        <v>6464</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>399710.8451669363</v>
+        <v>399642.8523125298</v>
       </c>
       <c r="R50" t="n">
-        <v>6968291.225530193</v>
+        <v>6968373.785322208</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>79092208</v>
+        <v>79092200</v>
       </c>
       <c r="B51" t="n">
         <v>77506</v>
@@ -6410,10 +6410,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>399701.1693293362</v>
+        <v>399787.8843184439</v>
       </c>
       <c r="R51" t="n">
-        <v>6967944.887864886</v>
+        <v>6967830.190894547</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>79092219</v>
+        <v>79092350</v>
       </c>
       <c r="B52" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6502,37 +6502,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>399680.0843123929</v>
+        <v>399791.2086316429</v>
       </c>
       <c r="R52" t="n">
-        <v>6968468.213105333</v>
+        <v>6968013.934621413</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6586,12 +6586,12 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
@@ -6602,7 +6602,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>79092376</v>
+        <v>79092131</v>
       </c>
       <c r="B53" t="n">
         <v>77506</v>
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>399613.9173584364</v>
+        <v>399634.9453877139</v>
       </c>
       <c r="R53" t="n">
-        <v>6968415.824624576</v>
+        <v>6968354.822115188</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6718,10 +6718,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>79092365</v>
+        <v>79095900</v>
       </c>
       <c r="B54" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6734,37 +6734,40 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>399873.8516442559</v>
+        <v>399779.7929147588</v>
       </c>
       <c r="R54" t="n">
-        <v>6967840.82820246</v>
+        <v>6968119.921268553</v>
       </c>
       <c r="S54" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6812,32 +6815,29 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
-        </is>
-      </c>
-      <c r="AY54" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>79091611</v>
+        <v>79095852</v>
       </c>
       <c r="B55" t="n">
-        <v>78603</v>
+        <v>77506</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6846,38 +6846,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>399642.8523125298</v>
+        <v>399790.0213541007</v>
       </c>
       <c r="R55" t="n">
-        <v>6968373.785322208</v>
+        <v>6968169.911236123</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6922,35 +6925,37 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Ganska mycket.</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>79092200</v>
+        <v>79095871</v>
       </c>
       <c r="B56" t="n">
         <v>77506</v>
@@ -6984,16 +6989,19 @@
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>399787.8843184439</v>
+        <v>399792.7664000792</v>
       </c>
       <c r="R56" t="n">
-        <v>6967830.190894547</v>
+        <v>6968169.827356715</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7044,36 +7052,33 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
-        </is>
-      </c>
-      <c r="AY56" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>79092350</v>
+        <v>79092222</v>
       </c>
       <c r="B57" t="n">
-        <v>89392</v>
+        <v>56395</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7082,37 +7087,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>399791.2086316429</v>
+        <v>399565.8483315747</v>
       </c>
       <c r="R57" t="n">
-        <v>6968013.934621413</v>
+        <v>6968147.044769072</v>
       </c>
       <c r="S57" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7152,6 +7157,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7166,12 +7176,12 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
@@ -7182,14 +7192,14 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>79092131</v>
+        <v>79091604</v>
       </c>
       <c r="B58" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7198,37 +7208,41 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>399634.9453877139</v>
+        <v>399799.1541404514</v>
       </c>
       <c r="R58" t="n">
-        <v>6968354.822115188</v>
+        <v>6968019.179618208</v>
       </c>
       <c r="S58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7268,6 +7282,11 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Hackmärken</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7282,12 +7301,12 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr">
@@ -7298,10 +7317,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>79095900</v>
+        <v>79092185</v>
       </c>
       <c r="B59" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7310,41 +7329,38 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>399779.7929147588</v>
+        <v>399870.1315784751</v>
       </c>
       <c r="R59" t="n">
-        <v>6968119.921268553</v>
+        <v>6967433.886627749</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7395,29 +7411,32 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY59" t="inlineStr"/>
+          <t>Bjarne Tutturen</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>79095852</v>
+        <v>79092186</v>
       </c>
       <c r="B60" t="n">
-        <v>77506</v>
+        <v>78570</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7430,37 +7449,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>399790.0213541007</v>
+        <v>399870.1315784751</v>
       </c>
       <c r="R60" t="n">
-        <v>6968169.911236123</v>
+        <v>6967433.886627749</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7505,40 +7521,38 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Ganska mycket.</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY60" t="inlineStr"/>
+          <t>Bjarne Tutturen</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>79095871</v>
+        <v>79092184</v>
       </c>
       <c r="B61" t="n">
-        <v>77506</v>
+        <v>78603</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7547,41 +7561,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>399792.7664000792</v>
+        <v>399870.1315784751</v>
       </c>
       <c r="R61" t="n">
-        <v>6968169.827356715</v>
+        <v>6967433.886627749</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7632,56 +7643,59 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY61" t="inlineStr"/>
+          <t>Bjarne Tutturen</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>79092222</v>
+        <v>79092187</v>
       </c>
       <c r="B62" t="n">
-        <v>56395</v>
+        <v>103250</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>221725</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7691,10 +7705,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>399565.8483315747</v>
+        <v>399871.1052791341</v>
       </c>
       <c r="R62" t="n">
-        <v>6968147.044769072</v>
+        <v>6967450.780424873</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7737,11 +7751,6 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7772,14 +7781,14 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>79091604</v>
+        <v>79092183</v>
       </c>
       <c r="B63" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7788,38 +7797,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>399799.1541404514</v>
+        <v>399883.2096531182</v>
       </c>
       <c r="R63" t="n">
-        <v>6968019.179618208</v>
+        <v>6967442.177923767</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7864,11 +7869,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Hackmärken</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -7881,12 +7881,12 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr">

--- a/artfynd/A 54553-2018.xlsx
+++ b/artfynd/A 54553-2018.xlsx
@@ -1492,10 +1492,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>79092209</v>
+        <v>79092185</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1504,25 +1504,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>399693.0174672575</v>
+        <v>399870.1315784751</v>
       </c>
       <c r="R9" t="n">
-        <v>6967947.881116162</v>
+        <v>6967433.886627749</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79092218</v>
+        <v>79092209</v>
       </c>
       <c r="B10" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,21 +1624,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>399607.0881603772</v>
+        <v>399693.0174672575</v>
       </c>
       <c r="R10" t="n">
-        <v>6968073.070974734</v>
+        <v>6967947.881116162</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>79092205</v>
+        <v>79092218</v>
       </c>
       <c r="B11" t="n">
-        <v>73680</v>
+        <v>73693</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,25 +1736,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>306</v>
+        <v>6440</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kornig nållav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaenotheca chlorella</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>399729.9036449662</v>
+        <v>399607.0881603772</v>
       </c>
       <c r="R11" t="n">
-        <v>6967911.081749432</v>
+        <v>6968073.070974734</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,10 +1840,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>79091613</v>
+        <v>79092205</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>73680</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,38 +1852,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>306</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kornig nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca chlorella</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>399762.1825342695</v>
+        <v>399729.9036449662</v>
       </c>
       <c r="R12" t="n">
-        <v>6968232.953203444</v>
+        <v>6967911.081749432</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,12 +1940,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
@@ -1956,10 +1956,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79092198</v>
+        <v>79092186</v>
       </c>
       <c r="B13" t="n">
-        <v>73693</v>
+        <v>78570</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1972,21 +1972,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6440</v>
+        <v>2081</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1996,10 +1996,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>399815.9396846255</v>
+        <v>399870.1315784751</v>
       </c>
       <c r="R13" t="n">
-        <v>6967789.087721395</v>
+        <v>6967433.886627749</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>79093723</v>
+        <v>79091613</v>
       </c>
       <c r="B14" t="n">
         <v>77506</v>
@@ -2106,19 +2106,16 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>399749.8821270642</v>
+        <v>399762.1825342695</v>
       </c>
       <c r="R14" t="n">
-        <v>6968279.971823399</v>
+        <v>6968232.953203444</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2163,40 +2160,38 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Mycket, på några granar.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Adrian Rönnqvist</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>79092133</v>
+        <v>79092198</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2209,37 +2204,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>399711.1769134852</v>
+        <v>399815.9396846255</v>
       </c>
       <c r="R15" t="n">
-        <v>6968287.099896559</v>
+        <v>6967789.087721395</v>
       </c>
       <c r="S15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2293,12 +2288,12 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr">
@@ -2309,10 +2304,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>79093674</v>
+        <v>79093723</v>
       </c>
       <c r="B16" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2325,21 +2320,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2352,10 +2347,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>399614.8002997783</v>
+        <v>399749.8821270642</v>
       </c>
       <c r="R16" t="n">
-        <v>6968399.793462769</v>
+        <v>6968279.971823399</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2398,6 +2393,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Mycket, på några granar.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2425,10 +2425,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79091977</v>
+        <v>79092133</v>
       </c>
       <c r="B17" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2441,21 +2441,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>399817.9225797486</v>
+        <v>399711.1769134852</v>
       </c>
       <c r="R17" t="n">
-        <v>6967928.971692648</v>
+        <v>6968287.099896559</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2525,12 +2525,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
@@ -2541,10 +2541,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>79092207</v>
+        <v>79093674</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>81236</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2557,34 +2557,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>399700.8619318273</v>
+        <v>399614.8002997783</v>
       </c>
       <c r="R18" t="n">
-        <v>6967934.836115619</v>
+        <v>6968399.793462769</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2635,32 +2638,29 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>79092189</v>
+        <v>79091977</v>
       </c>
       <c r="B19" t="n">
-        <v>78098</v>
+        <v>89388</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,37 +2673,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>399885.1301930393</v>
+        <v>399817.9225797486</v>
       </c>
       <c r="R19" t="n">
-        <v>6967640.164216924</v>
+        <v>6967928.971692648</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2757,12 +2757,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2773,7 +2773,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>79091988</v>
+        <v>79092207</v>
       </c>
       <c r="B20" t="n">
         <v>77506</v>
@@ -2809,17 +2809,17 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>399811.9326722778</v>
+        <v>399700.8619318273</v>
       </c>
       <c r="R20" t="n">
-        <v>6967927.782687668</v>
+        <v>6967934.836115619</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2873,12 +2873,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2889,10 +2889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>79092132</v>
+        <v>79092189</v>
       </c>
       <c r="B21" t="n">
-        <v>77506</v>
+        <v>78098</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2905,37 +2905,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>399682.8170155885</v>
+        <v>399885.1301930393</v>
       </c>
       <c r="R21" t="n">
-        <v>6968362.959890574</v>
+        <v>6967640.164216924</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2989,12 +2989,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -3005,10 +3005,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>79092206</v>
+        <v>79092184</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>78603</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3017,25 +3017,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3045,10 +3045,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>399717.9376545823</v>
+        <v>399870.1315784751</v>
       </c>
       <c r="R22" t="n">
-        <v>6967909.160955034</v>
+        <v>6967433.886627749</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>79091618</v>
+        <v>79091988</v>
       </c>
       <c r="B23" t="n">
         <v>77506</v>
@@ -3161,13 +3161,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>399714.1278724397</v>
+        <v>399811.9326722778</v>
       </c>
       <c r="R23" t="n">
-        <v>6968278.778659158</v>
+        <v>6967927.782687668</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3221,12 +3221,12 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
@@ -3237,10 +3237,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>79092213</v>
+        <v>79092132</v>
       </c>
       <c r="B24" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3253,37 +3253,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>399688.0202699731</v>
+        <v>399682.8170155885</v>
       </c>
       <c r="R24" t="n">
-        <v>6968039.040171926</v>
+        <v>6968362.959890574</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3337,12 +3337,12 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
@@ -3353,10 +3353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>79092194</v>
+        <v>79092206</v>
       </c>
       <c r="B25" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3365,25 +3365,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>399850.8926263217</v>
+        <v>399717.9376545823</v>
       </c>
       <c r="R25" t="n">
-        <v>6967703.867797134</v>
+        <v>6967909.160955034</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>79092202</v>
+        <v>79091618</v>
       </c>
       <c r="B26" t="n">
         <v>77506</v>
@@ -3505,14 +3505,14 @@
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>399770.1653380775</v>
+        <v>399714.1278724397</v>
       </c>
       <c r="R26" t="n">
-        <v>6967834.848375899</v>
+        <v>6968278.778659158</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3569,12 +3569,12 @@
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3585,10 +3585,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>79092199</v>
+        <v>79092213</v>
       </c>
       <c r="B27" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3601,21 +3601,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3625,10 +3625,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>399815.9396846255</v>
+        <v>399688.0202699731</v>
       </c>
       <c r="R27" t="n">
-        <v>6967789.087721395</v>
+        <v>6968039.040171926</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3701,10 +3701,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>79091616</v>
+        <v>79092194</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3713,38 +3713,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>399819.1386767504</v>
+        <v>399850.8926263217</v>
       </c>
       <c r="R28" t="n">
-        <v>6967908.812168336</v>
+        <v>6967703.867797134</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3801,12 +3801,12 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr">
@@ -3817,10 +3817,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>79091972</v>
+        <v>79092202</v>
       </c>
       <c r="B29" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3833,37 +3833,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>399682.9670336375</v>
+        <v>399770.1653380775</v>
       </c>
       <c r="R29" t="n">
-        <v>6968352.895423437</v>
+        <v>6967834.848375899</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3917,12 +3917,12 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
@@ -3933,7 +3933,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>79092373</v>
+        <v>79092199</v>
       </c>
       <c r="B30" t="n">
         <v>77506</v>
@@ -3969,17 +3969,17 @@
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>399880.8517094556</v>
+        <v>399815.9396846255</v>
       </c>
       <c r="R30" t="n">
-        <v>6967830.095745876</v>
+        <v>6967789.087721395</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4033,12 +4033,12 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
@@ -4049,7 +4049,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>79092136</v>
+        <v>79091616</v>
       </c>
       <c r="B31" t="n">
         <v>77506</v>
@@ -4089,13 +4089,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>399748.9011006622</v>
+        <v>399819.1386767504</v>
       </c>
       <c r="R31" t="n">
-        <v>6968232.901910781</v>
+        <v>6967908.812168336</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4149,12 +4149,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
@@ -4165,10 +4165,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>79092368</v>
+        <v>79092187</v>
       </c>
       <c r="B32" t="n">
-        <v>89406</v>
+        <v>103250</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4177,41 +4177,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1204</v>
+        <v>221725</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>399745.9183303234</v>
+        <v>399871.1052791341</v>
       </c>
       <c r="R32" t="n">
-        <v>6968285.123048618</v>
+        <v>6967450.780424873</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4265,12 +4265,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -4281,10 +4281,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>79092375</v>
+        <v>79091972</v>
       </c>
       <c r="B33" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4297,21 +4297,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4321,10 +4321,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>399764.8419492346</v>
+        <v>399682.9670336375</v>
       </c>
       <c r="R33" t="n">
-        <v>6968095.226638545</v>
+        <v>6968352.895423437</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4381,12 +4381,12 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4397,10 +4397,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>79091968</v>
+        <v>79092373</v>
       </c>
       <c r="B34" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4413,21 +4413,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4437,10 +4437,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>399850.9822295979</v>
+        <v>399880.8517094556</v>
       </c>
       <c r="R34" t="n">
-        <v>6967811.799379735</v>
+        <v>6967830.095745876</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4497,12 +4497,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4513,7 +4513,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>79092214</v>
+        <v>79092136</v>
       </c>
       <c r="B35" t="n">
         <v>77506</v>
@@ -4549,17 +4549,17 @@
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>399684.7896378123</v>
+        <v>399748.9011006622</v>
       </c>
       <c r="R35" t="n">
-        <v>6968038.224364762</v>
+        <v>6968232.901910781</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4613,12 +4613,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4629,10 +4629,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>79092195</v>
+        <v>79092368</v>
       </c>
       <c r="B36" t="n">
-        <v>77506</v>
+        <v>89406</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4645,37 +4645,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>1204</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>399837.8660068626</v>
+        <v>399745.9183303234</v>
       </c>
       <c r="R36" t="n">
-        <v>6967742.225924851</v>
+        <v>6968285.123048618</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4729,12 +4729,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4745,10 +4745,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>79091602</v>
+        <v>79092375</v>
       </c>
       <c r="B37" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4761,21 +4761,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4785,13 +4785,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>399631.8767602439</v>
+        <v>399764.8419492346</v>
       </c>
       <c r="R37" t="n">
-        <v>6968389.210964377</v>
+        <v>6968095.226638545</v>
       </c>
       <c r="S37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4845,12 +4845,12 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
@@ -4861,10 +4861,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>79092188</v>
+        <v>79091968</v>
       </c>
       <c r="B38" t="n">
-        <v>76909</v>
+        <v>89392</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4877,37 +4877,37 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6437</v>
+        <v>1202</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>399885.1301930393</v>
+        <v>399850.9822295979</v>
       </c>
       <c r="R38" t="n">
-        <v>6967640.164216924</v>
+        <v>6967811.799379735</v>
       </c>
       <c r="S38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -4961,12 +4961,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4977,7 +4977,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>79091989</v>
+        <v>79092214</v>
       </c>
       <c r="B39" t="n">
         <v>77506</v>
@@ -5013,17 +5013,17 @@
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>399796.2229436815</v>
+        <v>399684.7896378123</v>
       </c>
       <c r="R39" t="n">
-        <v>6968058.140556235</v>
+        <v>6968038.224364762</v>
       </c>
       <c r="S39" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5077,12 +5077,12 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
@@ -5093,10 +5093,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>79091993</v>
+        <v>79092195</v>
       </c>
       <c r="B40" t="n">
-        <v>81236</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5109,37 +5109,37 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>399683.9173709562</v>
+        <v>399837.8660068626</v>
       </c>
       <c r="R40" t="n">
-        <v>6968383.960419114</v>
+        <v>6967742.225924851</v>
       </c>
       <c r="S40" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5187,19 +5187,18 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr">
@@ -5210,10 +5209,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>79092358</v>
+        <v>79092183</v>
       </c>
       <c r="B41" t="n">
-        <v>73698</v>
+        <v>77506</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5226,37 +5225,37 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1467</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Rödbrun blekspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sclerophora coniophaea</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Norman) J.Mattsson &amp; Middelb.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>399752.9906595632</v>
+        <v>399883.2096531182</v>
       </c>
       <c r="R41" t="n">
-        <v>6968231.862326249</v>
+        <v>6967442.177923767</v>
       </c>
       <c r="S41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5310,12 +5309,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr">
@@ -5326,10 +5325,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>79091986</v>
+        <v>79091602</v>
       </c>
       <c r="B42" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5342,21 +5341,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5366,13 +5365,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>399859.1373090741</v>
+        <v>399631.8767602439</v>
       </c>
       <c r="R42" t="n">
-        <v>6967748.894030207</v>
+        <v>6968389.210964377</v>
       </c>
       <c r="S42" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5426,12 +5425,12 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Barbara Kühn</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5442,10 +5441,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>79092137</v>
+        <v>79092188</v>
       </c>
       <c r="B43" t="n">
-        <v>77506</v>
+        <v>76909</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5458,37 +5457,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>399719.872537801</v>
+        <v>399885.1301930393</v>
       </c>
       <c r="R43" t="n">
-        <v>6968182.115951253</v>
+        <v>6967640.164216924</v>
       </c>
       <c r="S43" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5542,12 +5541,12 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
@@ -5558,7 +5557,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>79091990</v>
+        <v>79091989</v>
       </c>
       <c r="B44" t="n">
         <v>77506</v>
@@ -5598,10 +5597,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>399738.8537686144</v>
+        <v>399796.2229436815</v>
       </c>
       <c r="R44" t="n">
-        <v>6968188.852236346</v>
+        <v>6968058.140556235</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5674,10 +5673,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>79091609</v>
+        <v>79091993</v>
       </c>
       <c r="B45" t="n">
-        <v>89673</v>
+        <v>81236</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5690,21 +5689,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>658</v>
+        <v>1312</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5714,13 +5713,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>399710.8451669363</v>
+        <v>399683.9173709562</v>
       </c>
       <c r="R45" t="n">
-        <v>6968291.225530193</v>
+        <v>6968383.960419114</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5768,18 +5767,19 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr">
@@ -5790,10 +5790,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>79092208</v>
+        <v>79092358</v>
       </c>
       <c r="B46" t="n">
-        <v>77506</v>
+        <v>73698</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5806,37 +5806,37 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>1467</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun blekspik</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sclerophora coniophaea</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Norman) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>399701.1693293362</v>
+        <v>399752.9906595632</v>
       </c>
       <c r="R46" t="n">
-        <v>6967944.887864886</v>
+        <v>6968231.862326249</v>
       </c>
       <c r="S46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5890,12 +5890,12 @@
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr">
@@ -5906,7 +5906,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>79092219</v>
+        <v>79091986</v>
       </c>
       <c r="B47" t="n">
         <v>77506</v>
@@ -5942,17 +5942,17 @@
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>399680.0843123929</v>
+        <v>399859.1373090741</v>
       </c>
       <c r="R47" t="n">
-        <v>6968468.213105333</v>
+        <v>6967748.894030207</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr">
@@ -6022,7 +6022,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>79092376</v>
+        <v>79092137</v>
       </c>
       <c r="B48" t="n">
         <v>77506</v>
@@ -6062,10 +6062,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>399613.9173584364</v>
+        <v>399719.872537801</v>
       </c>
       <c r="R48" t="n">
-        <v>6968415.824624576</v>
+        <v>6968182.115951253</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -6138,10 +6138,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>79092365</v>
+        <v>79091990</v>
       </c>
       <c r="B49" t="n">
-        <v>89388</v>
+        <v>77506</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6154,21 +6154,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6178,10 +6178,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>399873.8516442559</v>
+        <v>399738.8537686144</v>
       </c>
       <c r="R49" t="n">
-        <v>6967840.82820246</v>
+        <v>6968188.852236346</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6238,12 +6238,12 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Barbara Kühn</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr">
@@ -6254,10 +6254,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>79091611</v>
+        <v>79091609</v>
       </c>
       <c r="B50" t="n">
-        <v>78603</v>
+        <v>89673</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6266,25 +6266,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6464</v>
+        <v>658</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>399642.8523125298</v>
+        <v>399710.8451669363</v>
       </c>
       <c r="R50" t="n">
-        <v>6968373.785322208</v>
+        <v>6968291.225530193</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>79092200</v>
+        <v>79092208</v>
       </c>
       <c r="B51" t="n">
         <v>77506</v>
@@ -6410,10 +6410,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>399787.8843184439</v>
+        <v>399701.1693293362</v>
       </c>
       <c r="R51" t="n">
-        <v>6967830.190894547</v>
+        <v>6967944.887864886</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>79092350</v>
+        <v>79092219</v>
       </c>
       <c r="B52" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6502,37 +6502,37 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>399791.2086316429</v>
+        <v>399680.0843123929</v>
       </c>
       <c r="R52" t="n">
-        <v>6968013.934621413</v>
+        <v>6968468.213105333</v>
       </c>
       <c r="S52" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6586,12 +6586,12 @@
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Julian Klein</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
@@ -6602,7 +6602,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>79092131</v>
+        <v>79092376</v>
       </c>
       <c r="B53" t="n">
         <v>77506</v>
@@ -6642,10 +6642,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>399634.9453877139</v>
+        <v>399613.9173584364</v>
       </c>
       <c r="R53" t="n">
-        <v>6968354.822115188</v>
+        <v>6968415.824624576</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6718,10 +6718,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>79095900</v>
+        <v>79092365</v>
       </c>
       <c r="B54" t="n">
-        <v>77506</v>
+        <v>89388</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6734,40 +6734,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>399779.7929147588</v>
+        <v>399873.8516442559</v>
       </c>
       <c r="R54" t="n">
-        <v>6968119.921268553</v>
+        <v>6967840.82820246</v>
       </c>
       <c r="S54" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6815,29 +6812,32 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY54" t="inlineStr"/>
+          <t>Julian Klein</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>79095852</v>
+        <v>79091611</v>
       </c>
       <c r="B55" t="n">
-        <v>77506</v>
+        <v>78603</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6846,41 +6846,38 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>6464</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>399790.0213541007</v>
+        <v>399642.8523125298</v>
       </c>
       <c r="R55" t="n">
-        <v>6968169.911236123</v>
+        <v>6968373.785322208</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6925,37 +6922,35 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Ganska mycket.</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr"/>
+          <t>Adrian Rönnqvist</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>79095871</v>
+        <v>79092200</v>
       </c>
       <c r="B56" t="n">
         <v>77506</v>
@@ -6989,19 +6984,16 @@
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Rönnåsen, Hjd</t>
+          <t>Rönnåsen Södra, Hjd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>399792.7664000792</v>
+        <v>399787.8843184439</v>
       </c>
       <c r="R56" t="n">
-        <v>6968169.827356715</v>
+        <v>6967830.190894547</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7052,33 +7044,36 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
+          <t>Bjarne Tutturen</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Lars Gerre</t>
-        </is>
-      </c>
-      <c r="AY56" t="inlineStr"/>
+          <t>Bjarne Tutturen</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr">
+        <is>
+          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>79092222</v>
+        <v>79092350</v>
       </c>
       <c r="B57" t="n">
-        <v>56395</v>
+        <v>89392</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7087,37 +7082,37 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>399565.8483315747</v>
+        <v>399791.2086316429</v>
       </c>
       <c r="R57" t="n">
-        <v>6968147.044769072</v>
+        <v>6968013.934621413</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7157,11 +7152,6 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7176,12 +7166,12 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
@@ -7192,14 +7182,14 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>79091604</v>
+        <v>79092131</v>
       </c>
       <c r="B58" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -7208,41 +7198,37 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>399799.1541404514</v>
+        <v>399634.9453877139</v>
       </c>
       <c r="R58" t="n">
-        <v>6968019.179618208</v>
+        <v>6968354.822115188</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7282,11 +7268,6 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Hackmärken</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7301,12 +7282,12 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Adrian Rönnqvist</t>
+          <t>Julian Klein</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr">
@@ -7317,10 +7298,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>79092185</v>
+        <v>79095900</v>
       </c>
       <c r="B59" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7329,38 +7310,41 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>399870.1315784751</v>
+        <v>399779.7929147588</v>
       </c>
       <c r="R59" t="n">
-        <v>6967433.886627749</v>
+        <v>6968119.921268553</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7411,32 +7395,29 @@
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
-        </is>
-      </c>
-      <c r="AY59" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>79092186</v>
+        <v>79095852</v>
       </c>
       <c r="B60" t="n">
-        <v>78570</v>
+        <v>77506</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7449,34 +7430,37 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>399870.1315784751</v>
+        <v>399790.0213541007</v>
       </c>
       <c r="R60" t="n">
-        <v>6967433.886627749</v>
+        <v>6968169.911236123</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7521,38 +7505,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ganska mycket.</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
-        </is>
-      </c>
-      <c r="AY60" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>79092184</v>
+        <v>79095871</v>
       </c>
       <c r="B61" t="n">
-        <v>78603</v>
+        <v>77506</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7561,38 +7547,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>399870.1315784751</v>
+        <v>399792.7664000792</v>
       </c>
       <c r="R61" t="n">
-        <v>6967433.886627749</v>
+        <v>6968169.827356715</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7643,59 +7632,56 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Lars Gerre</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
-        </is>
-      </c>
-      <c r="AY61" t="inlineStr">
-        <is>
-          <t>Forskningsresan i Naturvårdens Utmarker 2019 Jämtlands län</t>
-        </is>
-      </c>
+          <t>Lars Gerre</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>79092187</v>
+        <v>79092222</v>
       </c>
       <c r="B62" t="n">
-        <v>103250</v>
+        <v>56395</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>221725</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7705,10 +7691,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>399871.1052791341</v>
+        <v>399565.8483315747</v>
       </c>
       <c r="R62" t="n">
-        <v>6967450.780424873</v>
+        <v>6968147.044769072</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7751,6 +7737,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7781,14 +7772,14 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>79092183</v>
+        <v>79091604</v>
       </c>
       <c r="B63" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -7797,34 +7788,38 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Rönnåsen Södra, Hjd</t>
+          <t>Rönnåsen, Hjd</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>399883.2096531182</v>
+        <v>399799.1541404514</v>
       </c>
       <c r="R63" t="n">
-        <v>6967442.177923767</v>
+        <v>6968019.179618208</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7869,6 +7864,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Hackmärken</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
@@ -7881,12 +7881,12 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Bjarne Tutturen</t>
+          <t>Adrian Rönnqvist</t>
         </is>
       </c>
       <c r="AY63" t="inlineStr">
